--- a/public/export/tkblophoc.xlsx
+++ b/public/export/tkblophoc.xlsx
@@ -15,95 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP 1A</t>
-  </si>
-  <si>
-    <t>Buổi</t>
-  </si>
-  <si>
-    <t>Tiết</t>
-  </si>
-  <si>
-    <t>Thứ 2</t>
-  </si>
-  <si>
-    <t>Thứ 3</t>
-  </si>
-  <si>
-    <t>Thứ 4</t>
-  </si>
-  <si>
-    <t>Thứ 5</t>
-  </si>
-  <si>
-    <t>Thứ 6</t>
-  </si>
-  <si>
-    <t>Thứ 7</t>
-  </si>
-  <si>
-    <t>Sáng</t>
-  </si>
-  <si>
-    <t>Chào cờ-Nguyễn Thị Phương</t>
-  </si>
-  <si>
-    <t>Tiếng việt-Nguyễn Thị Phương</t>
-  </si>
-  <si>
-    <t>Toán-Nguyễn Thị Phương</t>
-  </si>
-  <si>
-    <t>L Toán-Mai Chí Thắng</t>
-  </si>
-  <si>
-    <t>L T Việt-Nguyễn Thị Phương</t>
-  </si>
-  <si>
-    <t>L Toán-Nguyễn Thị Phương</t>
-  </si>
-  <si>
-    <t>Đạo đức-Trương Văn Sáu</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Nguyễn Thị Phương</t>
-  </si>
-  <si>
-    <t>Chiều</t>
-  </si>
-  <si>
-    <t>L T Việt-Mai Chí Thắng</t>
-  </si>
-  <si>
-    <t>TNXH-Trương Văn Sáu</t>
-  </si>
-  <si>
-    <t>L T Việt-Đoàn Thị Ngọc Hiệp</t>
-  </si>
-  <si>
-    <t>Thể dục-Bùi Văn Duyên</t>
-  </si>
-  <si>
-    <t>Mĩ thuật-Đoàn Thị Ngọc Hiệp</t>
-  </si>
-  <si>
-    <t>GD ATGT-Trương Văn Sáu</t>
-  </si>
-  <si>
-    <t>Âm nhạc-Nguyễn Thị Thắm</t>
-  </si>
-  <si>
-    <t>Trải nghiệm-Nguyễn Thị Phương</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -115,15 +33,6 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -143,46 +52,17 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -484,22 +364,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:H13"/>
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="27.95" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="34.134521" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="34.134521" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="34.134521" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="34.134521" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="37.705078" bestFit="true" customWidth="true" style="1"/>
+    <col min="1" max="1" width="9.10" bestFit="true" style="1"/>
+    <col min="2" max="2" width="9.10" bestFit="true" style="1"/>
+    <col min="3" max="3" width="9.10" bestFit="true" style="1"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="1"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="1"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="1"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="1"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
     <col min="11" max="11" width="9.10" bestFit="true" style="1"/>
@@ -513,236 +393,18 @@
     <col min="19" max="19" width="9.10" bestFit="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customHeight="1" ht="27">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" customHeight="1" ht="27">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" customHeight="1" ht="27">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" customHeight="1" ht="27">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" customHeight="1" ht="27">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" customHeight="1" ht="27">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" customHeight="1" ht="27">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" customHeight="1" ht="27">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" customHeight="1" ht="27">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
+    <row r="1" spans="1:19" customHeight="1" ht="27"/>
+    <row r="2" spans="1:19" customHeight="1" ht="18"/>
+    <row r="3" spans="1:19" customHeight="1" ht="27"/>
+    <row r="4" spans="1:19" customHeight="1" ht="27"/>
+    <row r="5" spans="1:19" customHeight="1" ht="27"/>
+    <row r="6" spans="1:19" customHeight="1" ht="27"/>
+    <row r="7" spans="1:19" customHeight="1" ht="27"/>
+    <row r="8" spans="1:19" customHeight="1" ht="27"/>
+    <row r="9" spans="1:19" customHeight="1" ht="27"/>
+    <row r="10" spans="1:19" customHeight="1" ht="27"/>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.47244094488189" right="0.19685039370079" top="0.19685039370079" bottom="0.19685039370079" header="0.315" footer="0.315"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/public/export/tkblophoc.xlsx
+++ b/public/export/tkblophoc.xlsx
@@ -15,13 +15,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP Lớp 3A</t>
+  </si>
+  <si>
+    <t>Buổi</t>
+  </si>
+  <si>
+    <t>Tiết</t>
+  </si>
+  <si>
+    <t>Thứ 2</t>
+  </si>
+  <si>
+    <t>Thứ 3</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
+    <t>Thứ 6</t>
+  </si>
+  <si>
+    <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>Sáng</t>
+  </si>
+  <si>
+    <t>Chào cờ-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>HĐNK-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>TNXH-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Mĩ thuật-Đoàn Thị Ngọc Hiệp</t>
+  </si>
+  <si>
+    <t>Âm nhạc-Nguyễn Thị Thắm</t>
+  </si>
+  <si>
+    <t>Tập đọc + KC-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Tiếng anh-Hồ Nguyễn Minh Thư</t>
+  </si>
+  <si>
+    <t>GD ATGT-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>L T Việt-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Tập làm văn-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Chính tả-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>L Toán-Lê Thị Ánh</t>
+  </si>
+  <si>
+    <t>Tập viết-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Đạo đức-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Chiều</t>
+  </si>
+  <si>
+    <t>L T Việt-Lê Thị Ánh</t>
+  </si>
+  <si>
+    <t>Thể dục-Bùi Văn Duyên</t>
+  </si>
+  <si>
+    <t>Thủ công-Đoàn Thị Ngọc Hiệp</t>
+  </si>
+  <si>
+    <t>Tập đọc-Hoàng Thị Hợp</t>
+  </si>
+  <si>
+    <t>Toán-Hoàng Thị Hợp</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -33,6 +130,15 @@
     </font>
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -52,17 +158,46 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -364,22 +499,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N48" sqref="N48"/>
+      <selection activeCell="A3" sqref="A3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="27.95" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.10" bestFit="true" style="1"/>
-    <col min="2" max="2" width="9.10" bestFit="true" style="1"/>
-    <col min="3" max="3" width="9.10" bestFit="true" style="1"/>
-    <col min="4" max="4" width="9.10" bestFit="true" style="1"/>
-    <col min="5" max="5" width="9.10" bestFit="true" style="1"/>
-    <col min="6" max="6" width="9.10" bestFit="true" style="1"/>
-    <col min="7" max="7" width="9.10" bestFit="true" style="1"/>
-    <col min="8" max="8" width="9.10" bestFit="true" style="1"/>
+    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
+    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="35.2771" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="34.134521" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="34.134521" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="32.991943" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
     <col min="11" max="11" width="9.10" bestFit="true" style="1"/>
@@ -393,18 +528,232 @@
     <col min="19" max="19" width="9.10" bestFit="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customHeight="1" ht="27"/>
-    <row r="2" spans="1:19" customHeight="1" ht="18"/>
-    <row r="3" spans="1:19" customHeight="1" ht="27"/>
-    <row r="4" spans="1:19" customHeight="1" ht="27"/>
-    <row r="5" spans="1:19" customHeight="1" ht="27"/>
-    <row r="6" spans="1:19" customHeight="1" ht="27"/>
-    <row r="7" spans="1:19" customHeight="1" ht="27"/>
-    <row r="8" spans="1:19" customHeight="1" ht="27"/>
-    <row r="9" spans="1:19" customHeight="1" ht="27"/>
-    <row r="10" spans="1:19" customHeight="1" ht="27"/>
+    <row r="1" spans="1:19" customHeight="1" ht="27">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" customHeight="1" ht="18">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" customHeight="1" ht="27">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" customHeight="1" ht="27">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" customHeight="1" ht="27">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" customHeight="1" ht="27">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" customHeight="1" ht="27">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" customHeight="1" ht="27">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" customHeight="1" ht="27">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" customHeight="1" ht="27">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.47244094488189" right="0.19685039370079" top="0.19685039370079" bottom="0.19685039370079" header="0.315" footer="0.315"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/public/export/tkblophoc.xlsx
+++ b/public/export/tkblophoc.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
-  <si>
-    <t>THỜI KHÓA BIỂU LỚP Lớp 3A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>THỜI KHÓA BIỂU LỚP Lớp 1A</t>
   </si>
   <si>
     <t>Buổi</t>
@@ -47,70 +47,55 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t>Chào cờ-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>HĐNK-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>TNXH-Hoàng Thị Hợp</t>
+    <t>Chào cờ-Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>Tiếng việt-Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>Trải nghiệm-Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>Toán-Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>L T Việt-Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-Nguyễn Thị Phương</t>
   </si>
   <si>
     <t>Mĩ thuật-Đoàn Thị Ngọc Hiệp</t>
   </si>
   <si>
+    <t>L Toán-Mai Chí Thắng</t>
+  </si>
+  <si>
+    <t>TNXH-Trương Văn Sáu</t>
+  </si>
+  <si>
+    <t>Thể dục-Bùi Văn Duyên</t>
+  </si>
+  <si>
+    <t>L T Việt-Mai Chí Thắng</t>
+  </si>
+  <si>
+    <t>Chiều</t>
+  </si>
+  <si>
+    <t>L Toán-Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>GD ATGT-Trương Văn Sáu</t>
+  </si>
+  <si>
+    <t>Đạo đức-Trương Văn Sáu</t>
+  </si>
+  <si>
+    <t>L T Việt-Đoàn Thị Ngọc Hiệp</t>
+  </si>
+  <si>
     <t>Âm nhạc-Nguyễn Thị Thắm</t>
-  </si>
-  <si>
-    <t>Tập đọc + KC-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Tiếng anh-Hồ Nguyễn Minh Thư</t>
-  </si>
-  <si>
-    <t>GD ATGT-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>L T Việt-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Tập làm văn-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Chính tả-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>L Toán-Lê Thị Ánh</t>
-  </si>
-  <si>
-    <t>Tập viết-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Đạo đức-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Chiều</t>
-  </si>
-  <si>
-    <t>L T Việt-Lê Thị Ánh</t>
-  </si>
-  <si>
-    <t>Thể dục-Bùi Văn Duyên</t>
-  </si>
-  <si>
-    <t>Thủ công-Đoàn Thị Ngọc Hiệp</t>
-  </si>
-  <si>
-    <t>Tập đọc-Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Toán-Hoàng Thị Hợp</t>
   </si>
 </sst>
 </file>
@@ -509,11 +494,11 @@
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="35.2771" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="34.134521" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="37.705078" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="34.134521" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="35.2771" bestFit="true" customWidth="true" style="1"/>
     <col min="6" max="6" width="34.134521" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="32.991943" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="34.134521" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="1"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="1"/>
@@ -595,15 +580,17 @@
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:19" customHeight="1" ht="27">
@@ -612,19 +599,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -634,17 +621,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -662,21 +651,23 @@
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="27">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -686,18 +677,18 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:19">
@@ -706,20 +697,18 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:19">
